--- a/src/main/resources/net/gnfe/excel/relatorio-geral.xlsx
+++ b/src/main/resources/net/gnfe/excel/relatorio-geral.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guial\IdeaProjects\gnfe\src\resources\net\gnfe\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guial\IdeaProjects\projeto-tcc\src\main\resources\net\gnfe\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0684D6-2ECE-4EC3-99DC-9312E1293605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40F40DE-505B-46EC-A675-6007A2AC24BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID Movimentação Produto</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>Valor de Compra Unidade do Produto</t>
+  </si>
+  <si>
+    <t>Valor ICMS</t>
+  </si>
+  <si>
+    <t>Valor PIS</t>
+  </si>
+  <si>
+    <t>Valor COFINS</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Fornecedor</t>
   </si>
 </sst>
 </file>
@@ -443,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,27 +470,31 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="30.7109375" customWidth="1"/>
-    <col min="18" max="18" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="24" customWidth="1"/>
-    <col min="22" max="22" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="30.7109375" customWidth="1"/>
+    <col min="19" max="19" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="24" customWidth="1"/>
+    <col min="23" max="23" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" customWidth="1"/>
+    <col min="27" max="27" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,61 +514,76 @@
         <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
